--- a/public/reportdata/SP Operation Report11-02-2020 14.xlsx
+++ b/public/reportdata/SP Operation Report11-02-2020 14.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Export Time </t>
   </si>
   <si>
-    <t>11-02-2020 14:11:46</t>
+    <t>11-02-2020 14:29:57</t>
   </si>
   <si>
     <t xml:space="preserve">Filter Month </t>
